--- a/biology/Médecine/Michel_Chassang/Michel_Chassang.xlsx
+++ b/biology/Médecine/Michel_Chassang/Michel_Chassang.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Michel Chassang, né en 1956 à Saint-Flour, est un médecin français.
 Il est vice-président du Conseil économique, social et environnemental (CESE) et président de la Société de groupe d'Assurance mutuelle (SGAM) AG2R La Mondiale.
@@ -515,19 +527,93 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Parcours professionnel
-Après un doctorat de médecine en 1984 à la faculté de médecine de Toulouse[1], il s'installe comme médecin généraliste à Mauriac dans un cabinet de groupe, puis successivement à Aurillac et à Clermont-Ferrand.
+          <t>Parcours professionnel</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après un doctorat de médecine en 1984 à la faculté de médecine de Toulouse, il s'installe comme médecin généraliste à Mauriac dans un cabinet de groupe, puis successivement à Aurillac et à Clermont-Ferrand.
 Il est membre du Conseil économique, social et environnemental de 2015-2020 puis pour un deuxième mandat pour la période 2021-2026, au titre des professions libérales. Il est membre du groupe de l'Artisanat et des Professions libérales et siège au Bureau du CESE dans lequel il est vice-président chargé de la « subrogation et des partenariats institutionnels. »
-Parcours syndical
-2016-2019 : 2e vice-président de l'Union des entreprises de proximité (U2P)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Michel_Chassang</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michel_Chassang</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Parcours syndical</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2016-2019 : 2e vice-président de l'Union des entreprises de proximité (U2P)
 2013-2019 : président de l'Union nationale des professions libérales (UNAPL)
 2002-2014 : président de la Confédération des syndicats médicaux français (CSMF)
 1993-2002 : président de l’Union nationale des omnipraticiens français (UNOF), la branche médecins de famille de la CSMF
 1991-1993 : vice-président de l'UNOF, représentant la région Auvergne
 1990-1993 : membre du comité directeur de l'UNOF
-1986-2002 : président du Syndicat des médecins du Cantal (CSMF)
-Fonctions nominatives et électives
-2005-2014 : vice-président de l'Union nationale des professionnels de santé (UNPS)
+1986-2002 : président du Syndicat des médecins du Cantal (CSMF)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Michel_Chassang</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michel_Chassang</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fonctions nominatives et électives</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2005-2014 : vice-président de l'Union nationale des professionnels de santé (UNPS)
 2005-2014 : président de la Commission paritaire nationale de la convention médicale (CPN)
 2004-2014 : membre du Haut Conseil pour l'avenir de l'Assurance maladie
 2002-2007 : vice-président du Centre national des professions de santé (CNPS)
@@ -546,31 +632,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Michel_Chassang</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Michel_Chassang</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Publications et contributions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Qu'est-ce que la CSMF ?, Éditions L'Archipel,
 Contributions à la réforme de l'Assurance maladie
@@ -580,34 +668,36 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Michel_Chassang</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Michel_Chassang</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Décorations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Officier de l'ordre national du Mérite, il est fait officier par décret du 14 novembre 2011[2] ;
- Officier de la Légion d'honneur (2023)[3],  chevalier (2006)[4].</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Officier de l'ordre national du Mérite, il est fait officier par décret du 14 novembre 2011 ;
+ Officier de la Légion d'honneur (2023),  chevalier (2006).</t>
         </is>
       </c>
     </row>
